--- a/finalp/src/main/webapp/resources/db/ITEM.xlsx
+++ b/finalp/src/main/webapp/resources/db/ITEM.xlsx
@@ -1095,6 +1095,23 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1521898591370</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>네모 토트백 1EA</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>152189809208550</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/finalp/src/main/webapp/resources/db/ITEM.xlsx
+++ b/finalp/src/main/webapp/resources/db/ITEM.xlsx
@@ -1112,6 +1112,125 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1521923993911</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>청(靑) 초롱</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>152192366633051</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1521924007013</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>적(赤) 초롱</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>152192366633051</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1521924021697</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>밝을 랑(朗)</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>152192366633051</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1521924052383</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>어두운새벽 홀(曶)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>152192366633051</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1521924593983</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>3.1운동 엽서</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>152192435440652</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1521924610892</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>월간 케이스</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>152192435440652</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1521924627948</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Take back the bright 포스터</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>152192435440652</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
